--- a/medicine/Mort/Sarcophage_paléochrétien/Sarcophage_paléochrétien.xlsx
+++ b/medicine/Mort/Sarcophage_paléochrétien/Sarcophage_paléochrétien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarcophage_pal%C3%A9ochr%C3%A9tien</t>
+          <t>Sarcophage_paléochrétien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sarcophage paléochrétien est une sépulture sculptée dans la pierre, datant du christianisme ancien (art paléochrétien), entre les IIe et Ve siècles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarcophage_pal%C3%A9ochr%C3%A9tien</t>
+          <t>Sarcophage_paléochrétien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>L'influence des conditions sociales et matérielles sur la sculpture funéraire paléochrétienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La production des sarcophages romains à décor sculpté se répand largement dès le début du IIe siècle, à la suite de l'abandon progressif de l'incinération en faveur de l'inhumation (qui dans le courant du IIIe siècle s'impose dans tout l'Empire), tout en restant un moyen de l'ensevelissement réservé aux familles fortunées à cause de son coût. Dans le contexte de la grande crise économique, politique, sociale et religieuse du IIIe siècle, « la petite paix de l'Église » (introduite par l'édit de tolérance sous Gallien en 260 et qui assure au christianisme la tranquillité jusqu'au tournant du siècle) permet au christianisme de gagner les classes supérieures de la société (restées l'un des derniers bastions du paganisme). Les chrétiens fortunés, souvent présents dans l'armée, dans la haute administration et jusque dans l'entourage de l'empereur, sont les commanditaires des sarcophages qui apparaissent dans la deuxième moitié du IIIe siècle et dont le traitement plastique suit les tendances contemporaines du décor sculpté.
 Ces nouveaux commanditaires sont souvent des provinciaux installés à Rome, qui sont en partie à l'origine de l'évolution du style artistique. Leur goût pour « l'art plébéien » (plus expressif et individuel à cause du lien étroit avec les réalités de la vie quotidienne), qui se mêle à la tradition hellénistique, fait naître dans les ateliers de sculpture romains une nouvelle expression artistique. Les premières manifestations de sculpture d'inspiration chrétienne s'inscrivent dans ce mouvement.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarcophage_pal%C3%A9ochr%C3%A9tien</t>
+          <t>Sarcophage_paléochrétien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>L'iconographie des sarcophages chrétiens, son origine et  les principes de son utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les images chrétiennes qui apparaissent à cette époque ne sont pas liées à la nécessité de propager le christianisme, mais répondent plutôt à un goût pour la représentation figurée qui est profondément enraciné dans le monde méditerranéen.
 Il est difficile de cerner le moment où certaines formes, dans l'art funéraire, deviennent des manifestations de la foi chrétienne, à cause de ce phénomène qu'Henri-Irénée Marrou appelle la pseudomorphose (en cristallographie, le terme désigne l'état d'un minéral qui, après un changement de composition chimique, conserve sa forme cristalline primitive au lieu de cristalliser selon sa substance nouvelle): les images des premiers sarcophages chrétiens et des sarcophages païens sont puisées dans le même répertoire. On peut distinguer deux approches.
